--- a/Figures/modelling_results.xlsx
+++ b/Figures/modelling_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="149" uniqueCount="35">
   <si>
     <t>Component</t>
   </si>
@@ -98,6 +98,33 @@
   </si>
   <si>
     <t>Epithelium</t>
+  </si>
+  <si>
+    <t>AICc</t>
+  </si>
+  <si>
+    <t>-73.408</t>
+  </si>
+  <si>
+    <t>-77.344</t>
+  </si>
+  <si>
+    <t>-99.280</t>
+  </si>
+  <si>
+    <t>-118.218</t>
+  </si>
+  <si>
+    <t>-78.430</t>
+  </si>
+  <si>
+    <t>-89.762</t>
+  </si>
+  <si>
+    <t>-95.587</t>
+  </si>
+  <si>
+    <t>-124.031</t>
   </si>
 </sst>
 </file>
@@ -468,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E11" sqref="A1:E11"/>
@@ -480,6 +507,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="true"/>
     <col min="3" max="3" width="130.140625" customWidth="true"/>
     <col min="4" max="4" width="8.42578125" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -495,6 +523,9 @@
       <c r="D1" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -509,6 +540,9 @@
       <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -523,6 +557,9 @@
       <c r="D3" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -537,6 +574,9 @@
       <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
@@ -551,6 +591,9 @@
       <c r="D5" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
@@ -565,6 +608,9 @@
       <c r="D6" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
@@ -579,6 +625,9 @@
       <c r="D7" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
@@ -593,6 +642,9 @@
       <c r="D8" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
@@ -606,6 +658,9 @@
       </c>
       <c r="D9" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
